--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2841056666666666</v>
+        <v>0.1751946666666667</v>
       </c>
       <c r="H2">
-        <v>0.852317</v>
+        <v>0.5255840000000001</v>
       </c>
       <c r="I2">
-        <v>0.1466007552634951</v>
+        <v>0.07933130249481599</v>
       </c>
       <c r="J2">
-        <v>0.1466007552634951</v>
+        <v>0.079331302494816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>0.657545</v>
       </c>
       <c r="O2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q2">
-        <v>0.06227075352944444</v>
+        <v>0.03839945903111112</v>
       </c>
       <c r="R2">
-        <v>0.560436781765</v>
+        <v>0.3455951312800001</v>
       </c>
       <c r="S2">
-        <v>0.04643318568908266</v>
+        <v>0.06710814757407753</v>
       </c>
       <c r="T2">
-        <v>0.04643318568908266</v>
+        <v>0.06710814757407754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2841056666666666</v>
+        <v>0.1751946666666667</v>
       </c>
       <c r="H3">
-        <v>0.852317</v>
+        <v>0.5255840000000001</v>
       </c>
       <c r="I3">
-        <v>0.1466007552634951</v>
+        <v>0.07933130249481599</v>
       </c>
       <c r="J3">
-        <v>0.1466007552634951</v>
+        <v>0.079331302494816</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4728276666666666</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N3">
-        <v>1.418483</v>
+        <v>0.109443</v>
       </c>
       <c r="O3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q3">
-        <v>0.1343330194567778</v>
+        <v>0.006391276634666669</v>
       </c>
       <c r="R3">
-        <v>1.208997175111</v>
+        <v>0.05752148971200001</v>
       </c>
       <c r="S3">
-        <v>0.1001675695744124</v>
+        <v>0.011169603593594</v>
       </c>
       <c r="T3">
-        <v>0.1001675695744124</v>
+        <v>0.011169603593594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8048609999999999</v>
+        <v>0.1751946666666667</v>
       </c>
       <c r="H4">
-        <v>2.414583</v>
+        <v>0.5255840000000001</v>
       </c>
       <c r="I4">
-        <v>0.4153145970881677</v>
+        <v>0.07933130249481599</v>
       </c>
       <c r="J4">
-        <v>0.4153145970881677</v>
+        <v>0.079331302494816</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2191816666666667</v>
+        <v>0.003441</v>
       </c>
       <c r="N4">
-        <v>0.657545</v>
+        <v>0.010323</v>
       </c>
       <c r="O4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="P4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="Q4">
-        <v>0.176410775415</v>
+        <v>0.0006028448480000001</v>
       </c>
       <c r="R4">
-        <v>1.587696978735</v>
+        <v>0.005425603632000001</v>
       </c>
       <c r="S4">
-        <v>0.1315435228919548</v>
+        <v>0.001053551327144457</v>
       </c>
       <c r="T4">
-        <v>0.1315435228919548</v>
+        <v>0.001053551327144458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>2.414583</v>
       </c>
       <c r="I5">
-        <v>0.4153145970881677</v>
+        <v>0.364455566325916</v>
       </c>
       <c r="J5">
-        <v>0.4153145970881677</v>
+        <v>0.3644555663259161</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4728276666666666</v>
+        <v>0.2191816666666667</v>
       </c>
       <c r="N5">
-        <v>1.418483</v>
+        <v>0.657545</v>
       </c>
       <c r="O5">
-        <v>0.6832677593943819</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P5">
-        <v>0.6832677593943819</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q5">
-        <v>0.380560548621</v>
+        <v>0.176410775415</v>
       </c>
       <c r="R5">
-        <v>3.425044937589</v>
+        <v>1.587696978735</v>
       </c>
       <c r="S5">
-        <v>0.2837710741962128</v>
+        <v>0.3083012273848876</v>
       </c>
       <c r="T5">
-        <v>0.2837710741962128</v>
+        <v>0.3083012273848878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.572779</v>
+        <v>0.8048609999999999</v>
       </c>
       <c r="H6">
-        <v>1.718337</v>
+        <v>2.414583</v>
       </c>
       <c r="I6">
-        <v>0.2955584623997978</v>
+        <v>0.364455566325916</v>
       </c>
       <c r="J6">
-        <v>0.2955584623997977</v>
+        <v>0.3644555663259161</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2191816666666667</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N6">
-        <v>0.657545</v>
+        <v>0.109443</v>
       </c>
       <c r="O6">
-        <v>0.3167322406056181</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P6">
-        <v>0.3167322406056181</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q6">
-        <v>0.1255426558516667</v>
+        <v>0.029362134141</v>
       </c>
       <c r="R6">
-        <v>1.129883902665</v>
+        <v>0.264259207269</v>
       </c>
       <c r="S6">
-        <v>0.09361289402583926</v>
+        <v>0.05131422370892374</v>
       </c>
       <c r="T6">
-        <v>0.09361289402583925</v>
+        <v>0.05131422370892377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,25 +838,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.572779</v>
+        <v>0.8048609999999999</v>
       </c>
       <c r="H7">
-        <v>1.718337</v>
+        <v>2.414583</v>
       </c>
       <c r="I7">
-        <v>0.2955584623997978</v>
+        <v>0.364455566325916</v>
       </c>
       <c r="J7">
-        <v>0.2955584623997977</v>
+        <v>0.3644555663259161</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4728276666666666</v>
+        <v>0.003441</v>
       </c>
       <c r="N7">
-        <v>1.418483</v>
+        <v>0.010323</v>
       </c>
       <c r="O7">
-        <v>0.6832677593943819</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="P7">
-        <v>0.6832677593943819</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="Q7">
-        <v>0.2708257580856667</v>
+        <v>0.002769526701</v>
       </c>
       <c r="R7">
-        <v>2.437431822771</v>
+        <v>0.024925740309</v>
       </c>
       <c r="S7">
-        <v>0.2019455683739585</v>
+        <v>0.004840115232104563</v>
       </c>
       <c r="T7">
-        <v>0.2019455683739584</v>
+        <v>0.004840115232104565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2762093333333334</v>
+        <v>1.142989</v>
       </c>
       <c r="H8">
-        <v>0.828628</v>
+        <v>3.428967</v>
       </c>
       <c r="I8">
-        <v>0.1425261852485395</v>
+        <v>0.5175660186035755</v>
       </c>
       <c r="J8">
-        <v>0.1425261852485395</v>
+        <v>0.5175660186035757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,27 +933,27 @@
         <v>0.657545</v>
       </c>
       <c r="O8">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P8">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q8">
-        <v>0.0605400220288889</v>
+        <v>0.2505222340016667</v>
       </c>
       <c r="R8">
-        <v>0.5448601982600001</v>
+        <v>2.254700106015</v>
       </c>
       <c r="S8">
-        <v>0.0451426379987413</v>
+        <v>0.4378208306619719</v>
       </c>
       <c r="T8">
-        <v>0.0451426379987413</v>
+        <v>0.4378208306619721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2762093333333334</v>
+        <v>1.142989</v>
       </c>
       <c r="H9">
-        <v>0.828628</v>
+        <v>3.428967</v>
       </c>
       <c r="I9">
-        <v>0.1425261852485395</v>
+        <v>0.5175660186035755</v>
       </c>
       <c r="J9">
-        <v>0.1425261852485395</v>
+        <v>0.5175660186035757</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4728276666666666</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N9">
-        <v>1.418483</v>
+        <v>0.109443</v>
       </c>
       <c r="O9">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P9">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q9">
-        <v>0.1305994145915556</v>
+        <v>0.04169738170900001</v>
       </c>
       <c r="R9">
-        <v>1.175394731324</v>
+        <v>0.375276435381</v>
       </c>
       <c r="S9">
-        <v>0.09738354724979818</v>
+        <v>0.072871704856912</v>
       </c>
       <c r="T9">
-        <v>0.09738354724979818</v>
+        <v>0.07287170485691202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.142989</v>
+      </c>
+      <c r="H10">
+        <v>3.428967</v>
+      </c>
+      <c r="I10">
+        <v>0.5175660186035755</v>
+      </c>
+      <c r="J10">
+        <v>0.5175660186035757</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.003441</v>
+      </c>
+      <c r="N10">
+        <v>0.010323</v>
+      </c>
+      <c r="O10">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="P10">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="Q10">
+        <v>0.003933025149</v>
+      </c>
+      <c r="R10">
+        <v>0.035397226341</v>
+      </c>
+      <c r="S10">
+        <v>0.006873483084691596</v>
+      </c>
+      <c r="T10">
+        <v>0.0068734830846916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08534799999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.256044</v>
+      </c>
+      <c r="I11">
+        <v>0.0386471125756923</v>
+      </c>
+      <c r="J11">
+        <v>0.0386471125756923</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2191816666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.657545</v>
+      </c>
+      <c r="O11">
+        <v>0.8459226744507667</v>
+      </c>
+      <c r="P11">
+        <v>0.8459226744507669</v>
+      </c>
+      <c r="Q11">
+        <v>0.01870671688666667</v>
+      </c>
+      <c r="R11">
+        <v>0.16836045198</v>
+      </c>
+      <c r="S11">
+        <v>0.03269246882982949</v>
+      </c>
+      <c r="T11">
+        <v>0.0326924688298295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08534799999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.256044</v>
+      </c>
+      <c r="I12">
+        <v>0.0386471125756923</v>
+      </c>
+      <c r="J12">
+        <v>0.0386471125756923</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.03648100000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.109443</v>
+      </c>
+      <c r="O12">
+        <v>0.1407969268413801</v>
+      </c>
+      <c r="P12">
+        <v>0.1407969268413801</v>
+      </c>
+      <c r="Q12">
+        <v>0.003113580388000001</v>
+      </c>
+      <c r="R12">
+        <v>0.028022223492</v>
+      </c>
+      <c r="S12">
+        <v>0.005441394681950329</v>
+      </c>
+      <c r="T12">
+        <v>0.005441394681950331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08534799999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.256044</v>
+      </c>
+      <c r="I13">
+        <v>0.0386471125756923</v>
+      </c>
+      <c r="J13">
+        <v>0.0386471125756923</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.003441</v>
+      </c>
+      <c r="N13">
+        <v>0.010323</v>
+      </c>
+      <c r="O13">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="P13">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="Q13">
+        <v>0.000293682468</v>
+      </c>
+      <c r="R13">
+        <v>0.002643142212</v>
+      </c>
+      <c r="S13">
+        <v>0.0005132490639124771</v>
+      </c>
+      <c r="T13">
+        <v>0.0005132490639124773</v>
       </c>
     </row>
   </sheetData>
